--- a/entrega/auto-avaliacao_do_grupo.xlsx
+++ b/entrega/auto-avaliacao_do_grupo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MpApQ\Desktop\Dropbox\LAPR5 (1)\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\LaprV\entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="divisão de notas" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>Divisão Relativa de notas</t>
   </si>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>17</v>
@@ -783,12 +783,16 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="5"/>
@@ -800,12 +804,16 @@
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="5"/>
@@ -817,22 +825,20 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -848,14 +854,12 @@
       <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="5"/>

--- a/entrega/auto-avaliacao_do_grupo.xlsx
+++ b/entrega/auto-avaliacao_do_grupo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Divisão Relativa de notas</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Observações:</t>
   </si>
   <si>
-    <t>Exemplo:</t>
-  </si>
-  <si>
     <t>LAPR5</t>
   </si>
   <si>
@@ -57,21 +54,6 @@
     <t>Misc.</t>
   </si>
   <si>
-    <t>Ana Silva</t>
-  </si>
-  <si>
-    <t>João Santos</t>
-  </si>
-  <si>
-    <t>Carla Coelho</t>
-  </si>
-  <si>
-    <t>Miguel Alves</t>
-  </si>
-  <si>
-    <t>António Faria</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>Nº</t>
-  </si>
-  <si>
     <t>GERAL</t>
   </si>
   <si>
@@ -91,27 +70,6 @@
   </si>
   <si>
     <t>visualizador 3D</t>
-  </si>
-  <si>
-    <t>muito abaixo da média</t>
-  </si>
-  <si>
-    <t>abaixo da média</t>
-  </si>
-  <si>
-    <t>muito acima da média</t>
-  </si>
-  <si>
-    <t>Joana Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nas células da tabela anterior relativas aos módulos devem colocar um dos simbolos { ***, **, * }  </t>
-  </si>
-  <si>
-    <t>consoante o elemento foi mais ou menos resposnavel por esse módulo</t>
-  </si>
-  <si>
-    <t>na coluna GERAL devem indicar s eo elemento trabalhou acim aou abaixa da média do grupo</t>
   </si>
   <si>
     <t>Bruno Cunha</t>
@@ -283,34 +241,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -356,26 +287,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table54" displayName="Table54" ref="A9:I15" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table54" displayName="Table54" ref="A9:I15" totalsRowShown="0" headerRowDxfId="7">
   <tableColumns count="9">
     <tableColumn id="1" name="Nº aluno"/>
-    <tableColumn id="2" name="Nome"/>
-    <tableColumn id="3" name="visualizador 3D" dataDxfId="14"/>
-    <tableColumn id="4" name="Site" dataDxfId="13"/>
-    <tableColumn id="5" name="IA" dataDxfId="12"/>
-    <tableColumn id="6" name="Servidores" dataDxfId="11"/>
-    <tableColumn id="7" name="GP" dataDxfId="10"/>
-    <tableColumn id="8" name="Misc." dataDxfId="9"/>
-    <tableColumn id="10" name="GERAL" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table575" displayName="Table575" ref="A28:I34" totalsRowShown="0" headerRowDxfId="7">
-  <tableColumns count="9">
-    <tableColumn id="1" name="Nº"/>
     <tableColumn id="2" name="Nome"/>
     <tableColumn id="3" name="visualizador 3D" dataDxfId="6"/>
     <tableColumn id="4" name="Site" dataDxfId="5"/>
@@ -385,7 +299,7 @@
     <tableColumn id="8" name="Misc." dataDxfId="1"/>
     <tableColumn id="10" name="GERAL" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -678,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -707,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -724,31 +638,31 @@
     </row>
     <row r="9" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -756,23 +670,23 @@
         <v>1100554</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -781,20 +695,22 @@
         <v>1100592</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -802,20 +718,22 @@
         <v>1101340</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -823,21 +741,23 @@
         <v>1100638</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -846,20 +766,20 @@
         <v>1100677</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="5"/>
@@ -880,192 +800,75 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>101014</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>101013</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>101010</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>17</v>
-      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>101011</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>101012</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>101015</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
-      <c r="D34" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
   </sheetData>
@@ -1073,9 +876,8 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>